--- a/app/data/2023-07-21/ESTOQUEDUSNEI0022023-07-21.xlsx
+++ b/app/data/2023-07-21/ESTOQUEDUSNEI0022023-07-21.xlsx
@@ -459,11 +459,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -481,11 +477,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -503,11 +495,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -525,11 +513,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -547,11 +531,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -569,11 +549,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -591,11 +567,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -613,11 +585,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -635,11 +603,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -657,11 +621,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -679,11 +639,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -701,11 +657,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -723,11 +675,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -745,11 +693,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -767,11 +711,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -789,11 +729,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -811,11 +747,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -833,11 +765,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -855,11 +783,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -877,11 +801,7 @@
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
